--- a/data/trans_camb/P24_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11,56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>-2,15</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,99</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,77</t>
+          <t>-2,32; 8,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,87</t>
+          <t>-7,0; 2,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -1,05</t>
+          <t>-10,62; -1,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,26</t>
+          <t>-2,02; 13,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,79</t>
+          <t>-1,46; 13,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,75</t>
+          <t>-0,18; 10,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 1,63</t>
+          <t>-4,14; 5,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,9</t>
+          <t>-7,25; 2,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,21</t>
+          <t>-7,32; 2,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,19</t>
+          <t>-4,34; 6,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,73</t>
+          <t>6,25; 17,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,94</t>
+          <t>-1,66; 9,02</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 5,48</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 1,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; -0,88</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 6,47</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 13,48</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 7,8</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,36%</t>
+          <t>-24,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-14,79%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-7,46%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-13,82%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>30,46%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 37,66</t>
+          <t>-9,47; 41,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 20,28</t>
+          <t>-26,09; 14,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,94; -5,81</t>
+          <t>-41,28; -4,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 56,91</t>
+          <t>-8,27; 63,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 14,67</t>
+          <t>-5,55; 58,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 5,39</t>
+          <t>-0,59; 40,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 4,9</t>
+          <t>-11,19; 17,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,54; 43,24</t>
+          <t>-19,79; 5,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 19,39</t>
+          <t>-19,64; 6,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 4,15</t>
+          <t>-11,69; 20,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-24,74; -2,77</t>
+          <t>16,18; 53,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 40,02</t>
+          <t>-3,69; 22,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 20,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; 3,9</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-24,36; -3,12</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 23,17</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 47,0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 23,17</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,82</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 10,14</t>
+          <t>-1,5; 10,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,45</t>
+          <t>-1,63; 9,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 8,64</t>
+          <t>-2,61; 8,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 13,15</t>
+          <t>3,18; 15,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 3,41</t>
+          <t>-4,79; 10,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 1,25</t>
+          <t>-2,74; 13,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 4,29</t>
+          <t>-5,94; 4,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 14,7</t>
+          <t>-8,44; 2,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 4,92</t>
+          <t>-6,0; 5,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,98</t>
+          <t>-0,14; 12,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,29</t>
+          <t>-6,61; 9,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,02</t>
+          <t>-8,81; 10,58</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 5,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 4,44</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 5,08</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 12,37</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 7,65</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 9,84</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>53,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>-9,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 67,38</t>
+          <t>-7,93; 67,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 55,75</t>
+          <t>-8,38; 61,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 56,87</t>
+          <t>-12,6; 55,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 80,59</t>
+          <t>13,13; 99,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 11,7</t>
+          <t>-16,16; 45,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 4,35</t>
+          <t>-8,77; 68,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 15,23</t>
+          <t>-17,65; 17,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 51,04</t>
+          <t>-24,63; 7,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 20,95</t>
+          <t>-17,53; 17,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 17,12</t>
+          <t>-0,15; 43,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 18,49</t>
+          <t>-16,51; 27,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 47,17</t>
+          <t>-19,9; 31,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 24,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 19,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 22,55</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 53,8</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 25,48</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 35,4</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,66</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-7,71</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,42</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-3,79</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 20,1</t>
+          <t>-1,96; 23,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 11,95</t>
+          <t>-6,79; 12,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 7,33</t>
+          <t>-11,04; 9,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-3,41; 26,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; 2,7</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 3,79</t>
+          <t>-17,61; 1,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-14,21; 5,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; 2,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; 11,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 8,34</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 5,67</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-10,3; 3,3</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 10,12</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 6,58</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 3,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 15,71</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>51,94%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-21,79%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,49%</t>
+          <t>-20,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-13,38%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-18,13%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-4,79%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-14,09%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-13,89%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 146,2</t>
+          <t>-13,53; 175,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 83,98</t>
+          <t>-26,87; 93,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 50,67</t>
+          <t>-46,34; 68,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-19,46; 176,27</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-43,69; 9,73</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,47; 12,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 13,19</t>
+          <t>-43,14; 6,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-35,45; 19,19</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-40,39; 10,55</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-27,19; 38,74</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-27,32; 35,1</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-25,02; 24,42</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-34,41; 13,48</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-24,44; 42,83</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-24,39; 29,37</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-34,26; 16,95</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 66,55</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,56</t>
+          <t>0,45; 8,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 4,33</t>
+          <t>-2,05; 4,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,44</t>
+          <t>-4,8; 1,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,85</t>
+          <t>2,65; 11,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,69</t>
+          <t>0,24; 10,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -0,19</t>
+          <t>0,7; 9,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 0,57</t>
+          <t>-4,56; 2,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,59</t>
+          <t>-6,51; 0,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,87</t>
+          <t>-5,33; 1,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,12</t>
+          <t>-0,71; 6,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,12</t>
+          <t>4,16; 12,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,78</t>
+          <t>-1,6; 7,16</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 3,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 1,63</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 0,34</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 7,72</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 10,56</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 7,76</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-7,28%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 40,42</t>
+          <t>0,83; 42,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 23,13</t>
+          <t>-9,33; 24,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 7,72</t>
+          <t>-21,82; 10,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,59; 57,78</t>
+          <t>12,38; 61,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 5,24</t>
+          <t>0,75; 43,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -0,59</t>
+          <t>2,41; 38,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 1,92</t>
+          <t>-12,66; 8,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,01; 38,99</t>
+          <t>-18,06; 1,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 15,03</t>
+          <t>-15,27; 3,79</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 4,32</t>
+          <t>-1,96; 22,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 0,45</t>
+          <t>10,83; 37,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 41,33</t>
+          <t>-3,63; 17,98</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 15,09</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; 6,36</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-15,15; 1,16</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 30,31</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>11,6; 35,13</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 23,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
